--- a/sixmonths2024/reports/sixmonths2024_blank.xlsx
+++ b/sixmonths2024/reports/sixmonths2024_blank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7944" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7944" tabRatio="744"/>
   </bookViews>
   <sheets>
     <sheet name="кадры " sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">аварийность!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">аналитика!$A$1:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'антикорпоратив и коррупционные'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'антикорпоратив и коррупционные'!$A$1:$H$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'кадры '!$A$1:$E$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">охрана!$A$1:$K$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'проверка физ. юр. лиц'!$A$1:$F$23</definedName>
@@ -27,7 +27,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'уд без дз'!$A$1:$T$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -817,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1002,11 +1001,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1143,6 +1168,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1152,9 +1180,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1181,6 +1206,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,9 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1841,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1870,52 +1899,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="49"/>
+      <c r="T1" s="46"/>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="15">
         <v>158</v>
       </c>
@@ -1940,8 +1969,8 @@
       <c r="L2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="15" t="s">
         <v>27</v>
       </c>
@@ -2697,16 +2726,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2719,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2763,26 +2792,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2793,10 +2818,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2807,10 +2832,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2821,10 +2846,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2835,10 +2860,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2849,10 +2874,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2863,10 +2888,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2877,10 +2902,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2891,10 +2916,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2905,10 +2930,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2919,10 +2944,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2933,10 +2958,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2947,10 +2972,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2961,10 +2986,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2974,55 +2999,55 @@
       <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
-        <f t="shared" ref="C17:H17" si="0">SUM(C2:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="C18" s="10">
+        <f t="shared" ref="C18:H18" si="0">SUM(C3:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3031,12 +3056,12 @@
       <c r="G19" s="32"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3047,10 +3072,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3059,38 +3084,49 @@
       <c r="G21" s="32"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="10">
-        <f t="shared" ref="C22:H22" si="1">SUM(C17:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="C23" s="10">
+        <f t="shared" ref="C23:H23" si="1">SUM(C18:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E23" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F23" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G23" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H23" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
@@ -3109,6 +3145,9 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3144,7 +3183,7 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="54" t="s">
@@ -3159,13 +3198,13 @@
       <c r="H1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="47" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3699,7 +3738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
@@ -3717,19 +3756,19 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4079,7 +4118,7 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="53" t="s">
@@ -4658,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4677,7 +4716,7 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="53" t="s">
@@ -5017,7 +5056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5036,7 +5075,7 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="53" t="s">

--- a/sixmonths2024/reports/sixmonths2024_blank.xlsx
+++ b/sixmonths2024/reports/sixmonths2024_blank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7944" tabRatio="744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7944" tabRatio="744" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="кадры " sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">аварийность!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">аналитика!$A$1:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'антикорпоратив и коррупционные'!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'антикорпоратив и коррупционные'!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'кадры '!$A$1:$E$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">охрана!$A$1:$K$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'проверка физ. юр. лиц'!$A$1:$F$23</definedName>
@@ -816,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1001,37 +1001,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1206,12 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,7 +1463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2748,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,22 +2762,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2818,10 +2792,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2832,10 +2806,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2846,10 +2820,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2860,10 +2834,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2874,10 +2848,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2888,10 +2862,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2902,10 +2876,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2916,10 +2890,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2930,10 +2904,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2944,10 +2918,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2958,10 +2932,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2972,10 +2946,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2986,10 +2960,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2999,55 +2973,55 @@
       <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:H17" si="0">SUM(C2:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="10">
-        <f t="shared" ref="C18:H18" si="0">SUM(C3:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3056,12 +3030,12 @@
       <c r="G19" s="32"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3072,10 +3046,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3084,49 +3058,38 @@
       <c r="G21" s="32"/>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
-        <f t="shared" ref="C23:H23" si="1">SUM(C18:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C22" s="10">
+        <f t="shared" ref="C22:H22" si="1">SUM(C17:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E22" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F22" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G22" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H22" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
@@ -3145,9 +3108,6 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sixmonths2024/reports/sixmonths2024_blank.xlsx
+++ b/sixmonths2024/reports/sixmonths2024_blank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7944" tabRatio="744" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7944" tabRatio="744"/>
   </bookViews>
   <sheets>
     <sheet name="кадры " sheetId="2" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1023,163 +1023,172 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,9 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1473,24 +1480,24 @@
     <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1501,9 +1508,9 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="10">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="9">
         <f t="shared" ref="E2:E22" si="0">SUM(C2-D2)</f>
         <v>0</v>
       </c>
@@ -1515,9 +1522,9 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1529,9 +1536,9 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="10">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1543,9 +1550,9 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="10">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1557,9 +1564,9 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="10">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1571,9 +1578,9 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="10">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1585,9 +1592,9 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="10">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1599,9 +1606,9 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="10">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1613,9 +1620,9 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="10">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1627,9 +1634,9 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="10">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1641,9 +1648,9 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="10">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1655,9 +1662,9 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="10">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1669,9 +1676,9 @@
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="10">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1683,9 +1690,9 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="10">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1697,29 +1704,29 @@
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="29">
         <v>19</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="10">
+      <c r="D16" s="29"/>
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="43">
         <f>SUM(C2:C16)</f>
         <v>19</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="43">
         <f>SUM(D2:D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1731,11 +1738,11 @@
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="29">
         <v>16</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="10">
+      <c r="D18" s="29"/>
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1747,11 +1754,11 @@
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="29">
         <v>16</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="10">
+      <c r="D19" s="29"/>
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1763,11 +1770,11 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="29">
         <v>44</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="10">
+      <c r="D20" s="29"/>
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -1779,29 +1786,29 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="29">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="10">
+      <c r="D21" s="29"/>
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <f>SUM(C17:C21)</f>
         <v>96</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <f>SUM(+D18+D19+D20+D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -1841,7 +1848,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1863,7 @@
     <col min="8" max="8" width="4.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="4.88671875" style="2" customWidth="1"/>
     <col min="10" max="11" width="4.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.77734375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" style="10" customWidth="1"/>
     <col min="13" max="13" width="23.109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
@@ -1868,95 +1875,95 @@
     <col min="21" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46" t="s">
+      <c r="R1" s="33"/>
+      <c r="S1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="46"/>
-    </row>
-    <row r="2" spans="1:20" s="14" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="15">
+      <c r="T1" s="33"/>
+    </row>
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="14">
         <v>158</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>159</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>165</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>160</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>204</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>247</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="15" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1967,27 +1974,27 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="10">
+      <c r="C3" s="44"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="43">
         <f t="shared" ref="L3:L22" si="0">SUM(E3:K3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1996,27 +2003,27 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2025,27 +2032,27 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2054,27 +2061,27 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2083,27 +2090,27 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -2112,27 +2119,27 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2141,27 +2148,27 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -2170,27 +2177,27 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -2199,27 +2206,27 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -2228,27 +2235,27 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -2257,27 +2264,27 @@
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -2286,27 +2293,27 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -2315,27 +2322,27 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -2344,27 +2351,27 @@
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2373,106 +2380,106 @@
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="43">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="43">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="43">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="43">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="43">
         <f>SUM(G3:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="43">
         <f t="shared" ref="H18:T18" si="1">SUM(H3:H17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="10">
+      <c r="S18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="17"/>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2481,28 +2488,28 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="17"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -2511,28 +2518,28 @@
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="17"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2541,28 +2548,28 @@
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="17"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="16"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2571,107 +2578,107 @@
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="17"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <f t="shared" ref="C23:T23" si="2">SUM(C8:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U23" s="17"/>
+      <c r="U23" s="16"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
@@ -2696,16 +2703,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2720,9 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2736,29 +2741,29 @@
     <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2769,12 +2774,12 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -2783,12 +2788,12 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -2797,12 +2802,12 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2811,12 +2816,12 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2825,12 +2830,12 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2839,12 +2844,12 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -2853,12 +2858,12 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2867,12 +2872,12 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -2881,12 +2886,12 @@
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="27"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -2895,12 +2900,12 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -2909,12 +2914,12 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -2923,12 +2928,12 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -2937,12 +2942,12 @@
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -2951,12 +2956,12 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -2965,39 +2970,39 @@
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="43">
         <f t="shared" ref="C17:H17" si="0">SUM(C2:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="28">
+      <c r="D17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3009,12 +3014,12 @@
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="27"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -3023,12 +3028,12 @@
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -3037,12 +3042,12 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -3051,39 +3056,39 @@
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="43">
         <f t="shared" ref="C22:H22" si="1">SUM(C17:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3123,7 +3128,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3140,54 +3145,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="56" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="15" t="s">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -3196,18 +3201,18 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10">
+      <c r="C3" s="59"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="43">
         <f t="shared" ref="G3:G17" si="0">SUM(D3:F3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -3216,18 +3221,18 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -3236,18 +3241,18 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -3256,18 +3261,18 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -3276,18 +3281,18 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -3296,18 +3301,18 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -3316,18 +3321,18 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -3336,18 +3341,18 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -3356,18 +3361,18 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -3376,18 +3381,18 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -3396,18 +3401,18 @@
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -3416,18 +3421,18 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -3436,18 +3441,18 @@
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -3456,18 +3461,18 @@
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -3476,57 +3481,57 @@
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="53">
         <f t="shared" ref="C18:K18" si="1">SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3538,18 +3543,18 @@
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="10">
+      <c r="C19" s="59"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="43">
         <f>SUM(D19:F19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -3558,18 +3563,18 @@
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="10">
+      <c r="C20" s="59"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="43">
         <f>SUM(D20:F20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -3578,18 +3583,18 @@
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="10">
+      <c r="C21" s="59"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="43">
         <f>SUM(D21:F21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -3598,64 +3603,64 @@
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="10">
+      <c r="C22" s="59"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="43">
         <f>SUM(D22:F22)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="53">
         <f t="shared" ref="C23:K23" si="2">SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
@@ -3698,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3713,301 +3718,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="A9" s="25">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="A10" s="25">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+      <c r="A11" s="25">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
+      <c r="A12" s="25">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+      <c r="A13" s="25">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="25">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="A15" s="25">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="A16" s="25">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="25">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="60">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="43">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="43">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="43">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
+      <c r="A19" s="25">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
+      <c r="A20" s="25">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="40">
+      <c r="A21" s="25">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
+      <c r="A22" s="25">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="43">
         <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="43">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="43">
         <f>SUM(E18:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="43">
         <f>SUM(F18:F22)</f>
         <v>0</v>
       </c>
@@ -4062,7 +4067,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4075,550 +4080,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-    </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="41" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10">
+      <c r="C3" s="29"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="43">
         <f t="shared" ref="F3:F17" si="0">SUM(C3:E3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="10">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="43">
         <f t="shared" ref="J3:J23" si="1">SUM(G3:I3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="10">
+      <c r="C4" s="29"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="10">
+      <c r="C5" s="29"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="10">
+      <c r="C6" s="29"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="10">
+      <c r="C7" s="29"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="10">
+      <c r="C8" s="29"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="10">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="10">
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="10">
+      <c r="C11" s="29"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="10">
+      <c r="C12" s="29"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="A13" s="27">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="10">
+      <c r="C13" s="29"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="10">
+      <c r="C14" s="29"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="27">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="10">
+      <c r="C15" s="29"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="10">
+      <c r="C16" s="29"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="10">
+      <c r="C17" s="29"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="43">
         <f t="shared" ref="C18:I18" si="2">SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="27">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10">
+      <c r="C19" s="29"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43">
         <f>SUM(C19:E19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="10">
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="27">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="10">
+      <c r="C20" s="29"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43">
         <f>SUM(C20:E20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="10">
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="27">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10">
+      <c r="C21" s="29"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43">
         <f>SUM(C21:E21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="10">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="27">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="10">
+      <c r="C22" s="29"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="43">
         <f>SUM(C22:E22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="10">
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="43">
         <f t="shared" ref="C23:I23" si="3">SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
@@ -4657,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4673,305 +4678,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="53"/>
-    </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="41" t="s">
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="A13" s="27">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="27">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="43">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="43">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="43">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="43">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="27">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="27">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="27">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="27">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="43">
         <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="43">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="43">
         <f>SUM(E18:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="43">
         <f>SUM(F18:F22)</f>
         <v>0</v>
       </c>
@@ -5017,7 +5022,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5032,303 +5037,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="41" t="s">
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="A13" s="27">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="27">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="43">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="43">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="43">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="43">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="27">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="27">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="27">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="27">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="43">
         <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="43">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="43">
         <f>SUM(E18:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="43">
         <f>SUM(F18:F22)</f>
         <v>0</v>
       </c>

--- a/sixmonths2024/reports/sixmonths2024_blank.xlsx
+++ b/sixmonths2024/reports/sixmonths2024_blank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7944" tabRatio="744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7950" tabRatio="744" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="кадры " sheetId="2" r:id="rId1"/>
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">аварийность!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">аналитика!$A$1:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'антикорпоратив и коррупционные'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'антикорпоратив и коррупционные'!$A$1:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'кадры '!$A$1:$E$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">охрана!$A$1:$K$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'проверка физ. юр. лиц'!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">травматизм!$A$1:$J$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'уд без дз'!$A$1:$T$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="75">
   <si>
     <t>№</t>
   </si>
@@ -268,101 +268,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">в период с </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">01.01 по 31.05.2024 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>изучено юр. лиц (подрядчики , субподрядчики), принявшие участие в закупочных процедурах (кол-во)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">проведено проверок несения службы за период с </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01.01. по 31.05.2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">по выявленным нарушениям направлено претензионных писем за период с </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01.01 по 31.05.2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">выявлено фактов с </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01.01. по 31.05.2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">направлено заявлений в правоохранительные органы за период </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с 01.01 по 31.05.2024 (кол-во без дебиторской задолженности)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">заявленный причиненный ущерб по заявлениям из предыдущего столбца                     </t>
     </r>
     <r>
@@ -406,6 +311,81 @@
     </r>
   </si>
   <si>
+    <t>работники компании</t>
+  </si>
+  <si>
+    <t>подрядчики</t>
+  </si>
+  <si>
+    <t>сторонние лица</t>
+  </si>
+  <si>
+    <t>в том числе с летальным исходом</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ущерб </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(млн руб)</t>
+    </r>
+  </si>
+  <si>
+    <t>тематические сообщения о деятельности СБ</t>
+  </si>
+  <si>
+    <t>справочные материалы в рамках установленной отчетности</t>
+  </si>
+  <si>
+    <t>служебные записки руководству по проблемным вопросам, требующим мер реагирования</t>
+  </si>
+  <si>
+    <t>инициативные информационные письма, направленные в ФОИВ и региональные , а также правоохранительные органы о проблемных вопросах, требующих рассмотрения (не ответы на запросы)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">фактическая численность                СБ (чел.) на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30.06.2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">направлено заявлений в правоохранительные органы за период </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с 01.01 по 30.06.2024 (кол-во без дебиторской задолженности)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">кол-во оконченых расследованием уд с направлением в суд за период с </t>
     </r>
@@ -419,7 +399,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">01.01 по 31.05.2024 </t>
+      <t xml:space="preserve">01.01 по 30.06.2024 </t>
     </r>
     <r>
       <rPr>
@@ -446,7 +426,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>с 01.01 по 31.05.2024</t>
+      <t>с 01.01 по 30.06.2024</t>
     </r>
     <r>
       <rPr>
@@ -473,7 +453,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">01.01 по 31.05.2024 </t>
+      <t xml:space="preserve">01.01 по 30.06.2024 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +480,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">01.01 по 31.05.2024 </t>
+      <t xml:space="preserve">01.01 по 30.06.2024 </t>
     </r>
     <r>
       <rPr>
@@ -539,7 +519,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01.06.2024</t>
+      <t>01.07.2024</t>
     </r>
     <r>
       <rPr>
@@ -554,19 +534,80 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">фактическая численность                СБ (чел.) на </t>
+      <t xml:space="preserve">выявлено фактов с </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>31.05.2024</t>
+      <t>01.01. по 30.06.2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проведено проверок несения службы за период с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01.01. по 30.06.2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">по выявленным нарушениям направлено претензионных писем за период с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01.01 по 30.06.2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">в период с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">01.01 по 30.06.2024 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>изучено юр. лиц (подрядчики , субподрядчики), принявшие участие в закупочных процедурах (кол-во)</t>
     </r>
   </si>
   <si>
@@ -583,20 +624,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01.01. по 31.05.2024</t>
+      <t>01.01. по 30.06.2024 г.</t>
     </r>
-  </si>
-  <si>
-    <t>работники компании</t>
-  </si>
-  <si>
-    <t>подрядчики</t>
-  </si>
-  <si>
-    <t>сторонние лица</t>
-  </si>
-  <si>
-    <t>в том числе с летальным исходом</t>
   </si>
   <si>
     <r>
@@ -612,24 +641,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01.01. по 31.05.2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ущерб </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(млн руб)</t>
+      <t>01.01. по 30.06.2024 г.</t>
     </r>
   </si>
   <si>
@@ -646,14 +658,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01.01. по 31.05.2024</t>
+      <t>01.01. по 30.06.2024 г.</t>
     </r>
-  </si>
-  <si>
-    <t>тематические сообщения о деятельности СБ</t>
-  </si>
-  <si>
-    <t>справочные материалы в рамках установленной отчетности</t>
   </si>
   <si>
     <r>
@@ -669,14 +675,14 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01.01. по 31.05.2024 (без сводок)</t>
+      <t>01.01. по 30.06.2024 г. (без сводок)</t>
     </r>
   </si>
   <si>
-    <t>служебные записки руководству по проблемным вопросам, требующим мер реагирования</t>
-  </si>
-  <si>
-    <t>инициативные информационные письма, направленные в ФОИВ и региональные , а также правоохранительные органы о проблемных вопросах, требующих рассмотрения (не ответы на запросы)</t>
+    <t>Уволено по результатам служебных проверок</t>
+  </si>
+  <si>
+    <t>Уволено по иным причинам</t>
   </si>
 </sst>
 </file>
@@ -1094,6 +1100,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,9 +1169,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1132,63 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,19 +1478,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1495,13 +1503,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1529,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1669,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1683,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1713,16 +1721,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="30">
         <f>SUM(C2:C16)</f>
         <v>19</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="30">
         <f>SUM(D2:D16)</f>
         <v>0</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1763,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1779,7 +1787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>22</v>
@@ -1805,7 +1813,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="9">
-        <f>SUM(+D18+D19+D20+D21)</f>
+        <f>SUM(D17:D21)</f>
         <v>0</v>
       </c>
       <c r="E22" s="9">
@@ -1813,25 +1821,25 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
   </sheetData>
@@ -1847,81 +1855,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="4.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.77734375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="4.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.21875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="2" customWidth="1"/>
     <col min="18" max="18" width="15" style="2" customWidth="1"/>
     <col min="19" max="19" width="11" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="2"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="33"/>
-    </row>
-    <row r="2" spans="1:20" s="13" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C1" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="49"/>
+    </row>
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="14">
         <v>158</v>
       </c>
@@ -1946,8 +1953,8 @@
       <c r="L2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="14" t="s">
         <v>27</v>
       </c>
@@ -1967,14 +1974,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
@@ -1983,20 +1990,20 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="43">
+      <c r="L3" s="30">
         <f t="shared" ref="L3:L22" si="0">SUM(E3:K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="29"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2012,20 +2019,20 @@
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
-      <c r="L4" s="43">
+      <c r="L4" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="29"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2041,20 +2048,20 @@
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
-      <c r="L5" s="43">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="29"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2070,20 +2077,20 @@
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="43">
+      <c r="L6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="29"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2099,20 +2106,20 @@
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
-      <c r="L7" s="43">
+      <c r="L7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="29"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2128,20 +2135,20 @@
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
-      <c r="L8" s="43">
+      <c r="L8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="29"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2157,20 +2164,20 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="43">
+      <c r="L9" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="29"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2186,20 +2193,20 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
-      <c r="L10" s="43">
+      <c r="L10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="29"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2215,20 +2222,20 @@
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
-      <c r="L11" s="43">
+      <c r="L11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="29"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2244,20 +2251,20 @@
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
-      <c r="L12" s="43">
+      <c r="L12" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="29"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2273,20 +2280,20 @@
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="43">
+      <c r="L13" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="29"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2302,20 +2309,20 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="43">
+      <c r="L14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="29"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2331,20 +2338,20 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="43">
+      <c r="L15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="29"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2360,20 +2367,20 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
-      <c r="L16" s="43">
+      <c r="L16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="29"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2389,99 +2396,99 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="43">
+      <c r="L17" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="29"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="30">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="30">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="30">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="30">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="30">
         <f>SUM(G3:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="30">
         <f t="shared" ref="H18:T18" si="1">SUM(H3:H17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T18" s="43">
+      <c r="T18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U18" s="16"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2497,21 +2504,21 @@
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
+      <c r="L19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
       <c r="U19" s="16"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2527,21 +2534,21 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
+      <c r="L20" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
       <c r="U20" s="16"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2557,21 +2564,21 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
+      <c r="L21" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
       <c r="U21" s="16"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2587,31 +2594,31 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
-      <c r="L22" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
+      <c r="L22" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
       <c r="U22" s="16"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" ref="C23:T23" si="2">SUM(C8:C22)</f>
+        <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D23:K23" si="2">SUM(D18:D22)</f>
         <v>0</v>
       </c>
       <c r="E23" s="9">
@@ -2643,76 +2650,76 @@
         <v>0</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L23" si="3">SUM(L18:L22)</f>
         <v>0</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M23" si="4">SUM(M18:M22)</f>
         <v>0</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N23" si="5">SUM(N18:N22)</f>
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O23" si="6">SUM(O18:O22)</f>
         <v>0</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P23" si="7">SUM(P18:P22)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q23" si="8">SUM(Q18:Q22)</f>
         <v>0</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R23" si="9">SUM(R18:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S23" si="10">SUM(S18:S22)</f>
         <v>0</v>
       </c>
       <c r="T23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T23" si="11">SUM(T18:T22)</f>
         <v>0</v>
       </c>
       <c r="U23" s="16"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2725,23 +2732,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>43</v>
@@ -2764,10 +2777,13 @@
         <v>35</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2776,12 +2792,13 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2790,12 +2807,13 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2804,12 +2822,13 @@
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2818,12 +2837,13 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2832,12 +2852,13 @@
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2846,12 +2867,13 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2860,12 +2882,13 @@
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2874,12 +2897,13 @@
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2888,12 +2912,13 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2902,12 +2927,13 @@
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2916,12 +2942,13 @@
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2930,12 +2957,13 @@
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2944,12 +2972,13 @@
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2958,12 +2987,13 @@
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2972,42 +3002,47 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="43">
-        <f t="shared" ref="C17:H17" si="0">SUM(C2:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="30">
+        <f t="shared" ref="C17:I17" si="0">SUM(C2:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="43">
+        <f>SUM(I2:I16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3016,12 +3051,13 @@
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3030,12 +3066,13 @@
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3044,12 +3081,13 @@
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3058,65 +3096,70 @@
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="43">
-        <f t="shared" ref="C22:H22" si="1">SUM(C17:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="43">
+      <c r="C22" s="30">
+        <f t="shared" ref="C22:I22" si="1">SUM(C17:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Cантикорпоратив</oddHeader>
   </headerFooter>
@@ -3128,55 +3171,55 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="30" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39"/>
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="14" t="s">
         <v>36</v>
       </c>
@@ -3189,495 +3232,495 @@
       <c r="G2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="59"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="43">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30">
         <f t="shared" ref="G3:G17" si="0">SUM(D3:F3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="29"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="29"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="29"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="29"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="29"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="29"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="40">
         <f t="shared" ref="C18:K18" si="1">SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="43">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30">
         <f>SUM(D19:F19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="43">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="30">
         <f>SUM(D20:F20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="43">
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30">
         <f>SUM(D21:F21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="43">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="30">
         <f>SUM(D22:F22)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="53">
-        <f t="shared" ref="C23:K23" si="2">SUM(C18:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
+      <c r="C23" s="40">
+        <f>SUM(C18:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
+        <f>SUM(D18:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <f t="shared" ref="C23:K23" si="2">SUM(E18:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="43">
+      <c r="G23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="43">
+      <c r="H23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="43">
+      <c r="I23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H23" s="43">
+      <c r="J23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="43">
+      <c r="K23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
   </sheetData>
@@ -3701,51 +3744,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -3757,7 +3803,7 @@
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -3769,7 +3815,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -3781,7 +3827,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -3793,7 +3839,7 @@
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -3805,7 +3851,7 @@
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -3817,7 +3863,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -3829,7 +3875,7 @@
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -3841,7 +3887,7 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>9</v>
       </c>
@@ -3853,7 +3899,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>10</v>
       </c>
@@ -3865,7 +3911,7 @@
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>11</v>
       </c>
@@ -3877,7 +3923,7 @@
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>12</v>
       </c>
@@ -3889,7 +3935,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -3901,7 +3947,7 @@
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -3913,7 +3959,7 @@
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>15</v>
       </c>
@@ -3925,29 +3971,29 @@
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="47">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="30">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="30">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="30">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>16</v>
       </c>
@@ -3959,7 +4005,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>17</v>
       </c>
@@ -3971,7 +4017,7 @@
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>18</v>
       </c>
@@ -3983,7 +4029,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>19</v>
       </c>
@@ -3995,53 +4041,53 @@
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="30">
         <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="30">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="30">
         <f>SUM(E18:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="30">
         <f>SUM(F18:F22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
@@ -4055,7 +4101,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;Cпроверки </oddHeader>
   </headerFooter>
@@ -4067,67 +4113,67 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="C1" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="26" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -4135,21 +4181,21 @@
         <v>3</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30">
         <f t="shared" ref="F3:F17" si="0">SUM(C3:E3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="43">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="30">
         <f t="shared" ref="J3:J23" si="1">SUM(G3:I3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -4157,21 +4203,21 @@
         <v>4</v>
       </c>
       <c r="C4" s="29"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="43">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>3</v>
       </c>
@@ -4179,21 +4225,21 @@
         <v>5</v>
       </c>
       <c r="C5" s="29"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="43">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -4201,21 +4247,21 @@
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="43">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -4223,21 +4269,21 @@
         <v>7</v>
       </c>
       <c r="C7" s="29"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="43">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -4245,21 +4291,21 @@
         <v>8</v>
       </c>
       <c r="C8" s="29"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="43">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -4267,21 +4313,21 @@
         <v>9</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="43">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -4289,21 +4335,21 @@
         <v>10</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="43">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -4311,21 +4357,21 @@
         <v>11</v>
       </c>
       <c r="C11" s="29"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="43">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>10</v>
       </c>
@@ -4333,21 +4379,21 @@
         <v>12</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="43">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>11</v>
       </c>
@@ -4355,21 +4401,21 @@
         <v>13</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="43">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>12</v>
       </c>
@@ -4377,21 +4423,21 @@
         <v>14</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="43">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>13</v>
       </c>
@@ -4399,21 +4445,21 @@
         <v>15</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="43">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -4421,21 +4467,21 @@
         <v>16</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="43">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>15</v>
       </c>
@@ -4443,59 +4489,59 @@
         <v>2</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="43">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="30">
         <f t="shared" ref="C18:I18" si="2">SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>16</v>
       </c>
@@ -4503,21 +4549,21 @@
         <v>18</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="43">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30">
         <f>SUM(C19:E19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="43">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>17</v>
       </c>
@@ -4525,21 +4571,21 @@
         <v>19</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="43">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30">
         <f>SUM(C20:E20)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="43">
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>18</v>
       </c>
@@ -4547,21 +4593,21 @@
         <v>20</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="43">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30">
         <f>SUM(C21:E21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="43">
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>19</v>
       </c>
@@ -4569,78 +4615,78 @@
         <v>21</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="43">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30">
         <f>SUM(C22:E22)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="43">
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="30">
         <f t="shared" ref="C23:I23" si="3">SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
   </sheetData>
@@ -4663,53 +4709,53 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="C1" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="26" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -4717,11 +4763,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -4729,11 +4775,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="29"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="32"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>3</v>
       </c>
@@ -4741,11 +4787,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="29"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="32"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -4753,11 +4799,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="32"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -4765,11 +4811,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="29"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="32"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -4777,11 +4823,11 @@
         <v>8</v>
       </c>
       <c r="C8" s="29"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="32"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -4789,11 +4835,11 @@
         <v>9</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="32"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -4801,11 +4847,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="32"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -4813,11 +4859,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="29"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="32"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>10</v>
       </c>
@@ -4825,11 +4871,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="32"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>11</v>
       </c>
@@ -4837,11 +4883,11 @@
         <v>13</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="32"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>12</v>
       </c>
@@ -4849,11 +4895,11 @@
         <v>14</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="32"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>13</v>
       </c>
@@ -4861,11 +4907,11 @@
         <v>15</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="32"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -4873,11 +4919,11 @@
         <v>16</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="32"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>15</v>
       </c>
@@ -4885,33 +4931,33 @@
         <v>2</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="32"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="30">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="30">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="30">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="30">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>16</v>
       </c>
@@ -4919,11 +4965,11 @@
         <v>18</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="32"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>17</v>
       </c>
@@ -4931,11 +4977,11 @@
         <v>19</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="32"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>18</v>
       </c>
@@ -4943,11 +4989,11 @@
         <v>20</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="32"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>19</v>
       </c>
@@ -4955,51 +5001,51 @@
         <v>21</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="32"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="30">
         <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="30">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="30">
         <f>SUM(E18:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="30">
         <f>SUM(F18:F22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
   </sheetData>
@@ -5022,51 +5068,51 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="C1" s="56" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -5074,11 +5120,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="32"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -5086,11 +5132,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="29"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="32"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>3</v>
       </c>
@@ -5098,11 +5144,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="29"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="32"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -5110,11 +5156,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="29"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="32"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -5122,11 +5168,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="29"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="32"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -5134,11 +5180,11 @@
         <v>8</v>
       </c>
       <c r="C8" s="29"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="32"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -5146,11 +5192,11 @@
         <v>9</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="32"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -5158,11 +5204,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="32"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -5170,11 +5216,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="29"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="32"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>10</v>
       </c>
@@ -5182,11 +5228,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="32"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>11</v>
       </c>
@@ -5194,11 +5240,11 @@
         <v>13</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="32"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>12</v>
       </c>
@@ -5206,11 +5252,11 @@
         <v>14</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="32"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>13</v>
       </c>
@@ -5218,11 +5264,11 @@
         <v>15</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="32"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -5230,11 +5276,11 @@
         <v>16</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="32"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>15</v>
       </c>
@@ -5242,33 +5288,33 @@
         <v>2</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="32"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="30">
         <f>SUM(C3:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="30">
         <f>SUM(D3:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="30">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="30">
         <f>SUM(F3:F17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>16</v>
       </c>
@@ -5276,11 +5322,11 @@
         <v>18</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="32"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>17</v>
       </c>
@@ -5288,11 +5334,11 @@
         <v>19</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="32"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>18</v>
       </c>
@@ -5300,11 +5346,11 @@
         <v>20</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="32"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>19</v>
       </c>
@@ -5312,51 +5358,51 @@
         <v>21</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="32"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="30">
         <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="30">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="30">
         <f>SUM(E18:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="30">
         <f>SUM(F18:F22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
   </sheetData>

--- a/sixmonths2024/reports/sixmonths2024_blank.xlsx
+++ b/sixmonths2024/reports/sixmonths2024_blank.xlsx
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">травматизм!$A$1:$J$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'уд без дз'!$A$1:$T$23</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1157,9 +1157,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,6 +1164,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1883,52 +1883,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="49"/>
+      <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="13" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="14">
         <v>158</v>
       </c>
@@ -1953,8 +1953,8 @@
       <c r="L2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="14" t="s">
         <v>27</v>
       </c>
@@ -2710,16 +2710,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2738,7 +2738,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,7 +3014,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="30">
-        <f t="shared" ref="C17:I17" si="0">SUM(C2:C16)</f>
+        <f t="shared" ref="C17:H17" si="0">SUM(C2:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="30">
@@ -3191,7 +3191,7 @@
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="57" t="s">
@@ -3206,13 +3206,13 @@
       <c r="H1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="30">
-        <f t="shared" ref="C23:K23" si="2">SUM(E18:E22)</f>
+        <f t="shared" ref="E23:K23" si="2">SUM(E18:E22)</f>
         <v>0</v>
       </c>
       <c r="F23" s="30">
@@ -3767,19 +3767,19 @@
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
@@ -4727,7 +4727,7 @@
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
@@ -5086,7 +5086,7 @@
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
